--- a/ProjectArtifacts/TermProject_PeerReview_Checklist.xlsx
+++ b/ProjectArtifacts/TermProject_PeerReview_Checklist.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="-20" windowWidth="17840" windowHeight="15220" tabRatio="500"/>
+    <workbookView xWindow="220" yWindow="220" windowWidth="21280" windowHeight="14480" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Checklist" sheetId="1" r:id="rId1"/>
     <sheet name="PeerReview" sheetId="2" r:id="rId2"/>
     <sheet name="Comments" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="130407"/>
+  <calcPr calcId="130407" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:ArchID Flags="2"/>
@@ -23,6 +23,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
+    <t>All deliverables are done in a professional manner with appropriate level of detail</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirements follow Canonical form</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Requirements are verifiable thru INVEST checklist</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>github issue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Found a missing with the html.  Profiles are missingfor 2 team members.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -51,10 +67,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>preparation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>moderator</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -192,18 +204,6 @@
   </si>
   <si>
     <t>Style</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>All deliverables are done in a professional manner with appropriate level of detail</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Requirements follow Canonical form</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Requirements are verifiable thru INVEST checklist</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -598,96 +598,95 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>44</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>45</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -702,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -716,19 +715,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1">
         <v>40713</v>
@@ -736,127 +735,102 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="B4" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7">
-        <v>0.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>0.5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
-        <v>0.5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11">
-        <v>0.5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -867,52 +841,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="60.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
